--- a/8/5/1/Exportaciones según CUCI 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Exportaciones según CUCI 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>Serie</t>
   </si>
@@ -807,6 +807,9 @@
   <si>
     <t>01-06-2021</t>
   </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1163,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP223"/>
+  <dimension ref="A1:AP224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28950,16 +28953,16 @@
         <v>258</v>
       </c>
       <c r="B218">
-        <v>7094</v>
+        <v>7177</v>
       </c>
       <c r="C218">
-        <v>2148</v>
+        <v>2135</v>
       </c>
       <c r="D218">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E218">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="F218">
         <v>24</v>
@@ -28986,10 +28989,10 @@
         <v>5</v>
       </c>
       <c r="N218">
-        <v>2433</v>
+        <v>2502</v>
       </c>
       <c r="O218">
-        <v>2042</v>
+        <v>2110</v>
       </c>
       <c r="P218">
         <v>218</v>
@@ -29004,10 +29007,10 @@
         <v>17</v>
       </c>
       <c r="T218">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U218">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V218">
         <v>8</v>
@@ -29016,13 +29019,13 @@
         <v>20</v>
       </c>
       <c r="X218">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y218">
         <v>28</v>
       </c>
       <c r="Z218">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA218">
         <v>37</v>
@@ -29031,10 +29034,10 @@
         <v>61</v>
       </c>
       <c r="AC218">
-        <v>1732</v>
+        <v>1759</v>
       </c>
       <c r="AD218">
-        <v>1473</v>
+        <v>1500</v>
       </c>
       <c r="AE218">
         <v>88</v>
@@ -29078,16 +29081,16 @@
         <v>259</v>
       </c>
       <c r="B219">
-        <v>7142</v>
+        <v>7294</v>
       </c>
       <c r="C219">
-        <v>1513</v>
+        <v>1575</v>
       </c>
       <c r="D219">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E219">
-        <v>876</v>
+        <v>935</v>
       </c>
       <c r="F219">
         <v>26</v>
@@ -29114,16 +29117,16 @@
         <v>5</v>
       </c>
       <c r="N219">
-        <v>2901</v>
+        <v>2978</v>
       </c>
       <c r="O219">
-        <v>2593</v>
+        <v>2675</v>
       </c>
       <c r="P219">
         <v>167</v>
       </c>
       <c r="Q219">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R219">
         <v>32</v>
@@ -29132,10 +29135,10 @@
         <v>13</v>
       </c>
       <c r="T219">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U219">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V219">
         <v>14</v>
@@ -29150,7 +29153,7 @@
         <v>20</v>
       </c>
       <c r="Z219">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA219">
         <v>29</v>
@@ -29159,16 +29162,16 @@
         <v>52</v>
       </c>
       <c r="AC219">
-        <v>2054</v>
+        <v>2068</v>
       </c>
       <c r="AD219">
-        <v>1852</v>
+        <v>1865</v>
       </c>
       <c r="AE219">
         <v>58</v>
       </c>
       <c r="AF219">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG219">
         <v>23</v>
@@ -29177,7 +29180,7 @@
         <v>14</v>
       </c>
       <c r="AI219">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ219">
         <v>114</v>
@@ -29206,16 +29209,16 @@
         <v>260</v>
       </c>
       <c r="B220">
-        <v>7661</v>
+        <v>7761</v>
       </c>
       <c r="C220">
-        <v>1460</v>
+        <v>1496</v>
       </c>
       <c r="D220">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E220">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="F220">
         <v>37</v>
@@ -29233,7 +29236,7 @@
         <v>18</v>
       </c>
       <c r="K220">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L220">
         <v>153</v>
@@ -29242,10 +29245,10 @@
         <v>4</v>
       </c>
       <c r="N220">
-        <v>3173</v>
+        <v>3209</v>
       </c>
       <c r="O220">
-        <v>2873</v>
+        <v>2909</v>
       </c>
       <c r="P220">
         <v>134</v>
@@ -29257,13 +29260,13 @@
         <v>41</v>
       </c>
       <c r="S220">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T220">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U220">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V220">
         <v>11</v>
@@ -29278,7 +29281,7 @@
         <v>35</v>
       </c>
       <c r="Z220">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA220">
         <v>38</v>
@@ -29287,10 +29290,10 @@
         <v>74</v>
       </c>
       <c r="AC220">
-        <v>2268</v>
+        <v>2297</v>
       </c>
       <c r="AD220">
-        <v>2045</v>
+        <v>2075</v>
       </c>
       <c r="AE220">
         <v>71</v>
@@ -29334,13 +29337,13 @@
         <v>261</v>
       </c>
       <c r="B221">
-        <v>8114</v>
+        <v>8160</v>
       </c>
       <c r="C221">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D221">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E221">
         <v>620</v>
@@ -29370,10 +29373,10 @@
         <v>5</v>
       </c>
       <c r="N221">
-        <v>3474</v>
+        <v>3519</v>
       </c>
       <c r="O221">
-        <v>2959</v>
+        <v>3004</v>
       </c>
       <c r="P221">
         <v>304</v>
@@ -29388,10 +29391,10 @@
         <v>32</v>
       </c>
       <c r="T221">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="U221">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="V221">
         <v>0</v>
@@ -29406,7 +29409,7 @@
         <v>36</v>
       </c>
       <c r="Z221">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA221">
         <v>32</v>
@@ -29415,10 +29418,10 @@
         <v>77</v>
       </c>
       <c r="AC221">
-        <v>2285</v>
+        <v>2293</v>
       </c>
       <c r="AD221">
-        <v>2038</v>
+        <v>2048</v>
       </c>
       <c r="AE221">
         <v>77</v>
@@ -29430,28 +29433,28 @@
         <v>32</v>
       </c>
       <c r="AH221">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI221">
         <v>73</v>
       </c>
       <c r="AJ221">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AK221">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AL221">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AM221">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AN221">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO221">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AP221">
         <v>86</v>
@@ -29462,7 +29465,7 @@
         <v>262</v>
       </c>
       <c r="B222">
-        <v>7920</v>
+        <v>7621</v>
       </c>
       <c r="C222">
         <v>1189</v>
@@ -29498,10 +29501,10 @@
         <v>4</v>
       </c>
       <c r="N222">
-        <v>3530</v>
+        <v>3331</v>
       </c>
       <c r="O222">
-        <v>3164</v>
+        <v>2964</v>
       </c>
       <c r="P222">
         <v>171</v>
@@ -29516,10 +29519,10 @@
         <v>24</v>
       </c>
       <c r="T222">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U222">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V222">
         <v>13</v>
@@ -29543,10 +29546,10 @@
         <v>74</v>
       </c>
       <c r="AC222">
-        <v>2416</v>
+        <v>2312</v>
       </c>
       <c r="AD222">
-        <v>2179</v>
+        <v>2073</v>
       </c>
       <c r="AE222">
         <v>72</v>
@@ -29555,31 +29558,31 @@
         <v>36</v>
       </c>
       <c r="AG222">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH222">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI222">
         <v>82</v>
       </c>
       <c r="AJ222">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK222">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL222">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM222">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AN222">
         <v>14</v>
       </c>
       <c r="AO222">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AP222">
         <v>68</v>
@@ -29590,10 +29593,10 @@
         <v>263</v>
       </c>
       <c r="B223">
-        <v>7445</v>
+        <v>7453</v>
       </c>
       <c r="C223">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D223">
         <v>464</v>
@@ -29605,7 +29608,7 @@
         <v>54</v>
       </c>
       <c r="G223">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H223">
         <v>25</v>
@@ -29626,16 +29629,16 @@
         <v>2</v>
       </c>
       <c r="N223">
-        <v>3336</v>
+        <v>3344</v>
       </c>
       <c r="O223">
-        <v>2940</v>
+        <v>2947</v>
       </c>
       <c r="P223">
         <v>184</v>
       </c>
       <c r="Q223">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R223">
         <v>58</v>
@@ -29644,10 +29647,10 @@
         <v>23</v>
       </c>
       <c r="T223">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U223">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V223">
         <v>11</v>
@@ -29656,13 +29659,13 @@
         <v>38</v>
       </c>
       <c r="X223">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Y223">
         <v>22</v>
       </c>
       <c r="Z223">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA223">
         <v>30</v>
@@ -29671,10 +29674,10 @@
         <v>74</v>
       </c>
       <c r="AC223">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="AD223">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="AE223">
         <v>81</v>
@@ -29686,31 +29689,159 @@
         <v>29</v>
       </c>
       <c r="AH223">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI223">
         <v>85</v>
       </c>
       <c r="AJ223">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AK223">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AL223">
         <v>62</v>
       </c>
       <c r="AM223">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN223">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO223">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AP223">
         <v>82</v>
+      </c>
+    </row>
+    <row r="224" spans="1:42">
+      <c r="A224" t="s">
+        <v>264</v>
+      </c>
+      <c r="B224">
+        <v>7943</v>
+      </c>
+      <c r="C224">
+        <v>1231</v>
+      </c>
+      <c r="D224">
+        <v>461</v>
+      </c>
+      <c r="E224">
+        <v>499</v>
+      </c>
+      <c r="F224">
+        <v>59</v>
+      </c>
+      <c r="G224">
+        <v>134</v>
+      </c>
+      <c r="H224">
+        <v>30</v>
+      </c>
+      <c r="I224">
+        <v>22</v>
+      </c>
+      <c r="J224">
+        <v>24</v>
+      </c>
+      <c r="K224">
+        <v>167</v>
+      </c>
+      <c r="L224">
+        <v>165</v>
+      </c>
+      <c r="M224">
+        <v>2</v>
+      </c>
+      <c r="N224">
+        <v>3599</v>
+      </c>
+      <c r="O224">
+        <v>3079</v>
+      </c>
+      <c r="P224">
+        <v>303</v>
+      </c>
+      <c r="Q224">
+        <v>135</v>
+      </c>
+      <c r="R224">
+        <v>64</v>
+      </c>
+      <c r="S224">
+        <v>17</v>
+      </c>
+      <c r="T224">
+        <v>49</v>
+      </c>
+      <c r="U224">
+        <v>37</v>
+      </c>
+      <c r="V224">
+        <v>11</v>
+      </c>
+      <c r="W224">
+        <v>34</v>
+      </c>
+      <c r="X224">
+        <v>282</v>
+      </c>
+      <c r="Y224">
+        <v>9</v>
+      </c>
+      <c r="Z224">
+        <v>168</v>
+      </c>
+      <c r="AA224">
+        <v>33</v>
+      </c>
+      <c r="AB224">
+        <v>71</v>
+      </c>
+      <c r="AC224">
+        <v>2335</v>
+      </c>
+      <c r="AD224">
+        <v>2068</v>
+      </c>
+      <c r="AE224">
+        <v>98</v>
+      </c>
+      <c r="AF224">
+        <v>43</v>
+      </c>
+      <c r="AG224">
+        <v>38</v>
+      </c>
+      <c r="AH224">
+        <v>13</v>
+      </c>
+      <c r="AI224">
+        <v>75</v>
+      </c>
+      <c r="AJ224">
+        <v>127</v>
+      </c>
+      <c r="AK224">
+        <v>58</v>
+      </c>
+      <c r="AL224">
+        <v>70</v>
+      </c>
+      <c r="AM224">
+        <v>50</v>
+      </c>
+      <c r="AN224">
+        <v>17</v>
+      </c>
+      <c r="AO224">
+        <v>33</v>
+      </c>
+      <c r="AP224">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/8/5/1/Exportaciones según CUCI 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Exportaciones según CUCI 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>Serie</t>
   </si>
@@ -810,6 +810,9 @@
   <si>
     <t>01-07-2021</t>
   </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1166,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP224"/>
+  <dimension ref="A1:AP225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29844,6 +29847,134 @@
         <v>70</v>
       </c>
     </row>
+    <row r="225" spans="1:42">
+      <c r="A225" t="s">
+        <v>265</v>
+      </c>
+      <c r="B225">
+        <v>7822</v>
+      </c>
+      <c r="C225">
+        <v>1236</v>
+      </c>
+      <c r="D225">
+        <v>512</v>
+      </c>
+      <c r="E225">
+        <v>482</v>
+      </c>
+      <c r="F225">
+        <v>52</v>
+      </c>
+      <c r="G225">
+        <v>126</v>
+      </c>
+      <c r="H225">
+        <v>23</v>
+      </c>
+      <c r="I225">
+        <v>17</v>
+      </c>
+      <c r="J225">
+        <v>23</v>
+      </c>
+      <c r="K225">
+        <v>172</v>
+      </c>
+      <c r="L225">
+        <v>166</v>
+      </c>
+      <c r="M225">
+        <v>6</v>
+      </c>
+      <c r="N225">
+        <v>3265</v>
+      </c>
+      <c r="O225">
+        <v>2784</v>
+      </c>
+      <c r="P225">
+        <v>266</v>
+      </c>
+      <c r="Q225">
+        <v>146</v>
+      </c>
+      <c r="R225">
+        <v>45</v>
+      </c>
+      <c r="S225">
+        <v>24</v>
+      </c>
+      <c r="T225">
+        <v>33</v>
+      </c>
+      <c r="U225">
+        <v>32</v>
+      </c>
+      <c r="V225">
+        <v>1</v>
+      </c>
+      <c r="W225">
+        <v>46</v>
+      </c>
+      <c r="X225">
+        <v>356</v>
+      </c>
+      <c r="Y225">
+        <v>24</v>
+      </c>
+      <c r="Z225">
+        <v>207</v>
+      </c>
+      <c r="AA225">
+        <v>47</v>
+      </c>
+      <c r="AB225">
+        <v>79</v>
+      </c>
+      <c r="AC225">
+        <v>2431</v>
+      </c>
+      <c r="AD225">
+        <v>2119</v>
+      </c>
+      <c r="AE225">
+        <v>124</v>
+      </c>
+      <c r="AF225">
+        <v>40</v>
+      </c>
+      <c r="AG225">
+        <v>33</v>
+      </c>
+      <c r="AH225">
+        <v>14</v>
+      </c>
+      <c r="AI225">
+        <v>100</v>
+      </c>
+      <c r="AJ225">
+        <v>154</v>
+      </c>
+      <c r="AK225">
+        <v>53</v>
+      </c>
+      <c r="AL225">
+        <v>101</v>
+      </c>
+      <c r="AM225">
+        <v>49</v>
+      </c>
+      <c r="AN225">
+        <v>21</v>
+      </c>
+      <c r="AO225">
+        <v>28</v>
+      </c>
+      <c r="AP225">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/5/1/Exportaciones según CUCI 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Exportaciones según CUCI 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>Serie</t>
   </si>
@@ -813,6 +813,9 @@
   <si>
     <t>01-08-2021</t>
   </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1169,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP225"/>
+  <dimension ref="A1:AP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29975,6 +29978,134 @@
         <v>80</v>
       </c>
     </row>
+    <row r="226" spans="1:42">
+      <c r="A226" t="s">
+        <v>266</v>
+      </c>
+      <c r="B226">
+        <v>7429</v>
+      </c>
+      <c r="C226">
+        <v>1118</v>
+      </c>
+      <c r="D226">
+        <v>509</v>
+      </c>
+      <c r="E226">
+        <v>412</v>
+      </c>
+      <c r="F226">
+        <v>27</v>
+      </c>
+      <c r="G226">
+        <v>117</v>
+      </c>
+      <c r="H226">
+        <v>22</v>
+      </c>
+      <c r="I226">
+        <v>15</v>
+      </c>
+      <c r="J226">
+        <v>15</v>
+      </c>
+      <c r="K226">
+        <v>167</v>
+      </c>
+      <c r="L226">
+        <v>162</v>
+      </c>
+      <c r="M226">
+        <v>4</v>
+      </c>
+      <c r="N226">
+        <v>3148</v>
+      </c>
+      <c r="O226">
+        <v>2737</v>
+      </c>
+      <c r="P226">
+        <v>223</v>
+      </c>
+      <c r="Q226">
+        <v>129</v>
+      </c>
+      <c r="R226">
+        <v>42</v>
+      </c>
+      <c r="S226">
+        <v>17</v>
+      </c>
+      <c r="T226">
+        <v>56</v>
+      </c>
+      <c r="U226">
+        <v>36</v>
+      </c>
+      <c r="V226">
+        <v>20</v>
+      </c>
+      <c r="W226">
+        <v>30</v>
+      </c>
+      <c r="X226">
+        <v>355</v>
+      </c>
+      <c r="Y226">
+        <v>19</v>
+      </c>
+      <c r="Z226">
+        <v>226</v>
+      </c>
+      <c r="AA226">
+        <v>43</v>
+      </c>
+      <c r="AB226">
+        <v>67</v>
+      </c>
+      <c r="AC226">
+        <v>2283</v>
+      </c>
+      <c r="AD226">
+        <v>1974</v>
+      </c>
+      <c r="AE226">
+        <v>91</v>
+      </c>
+      <c r="AF226">
+        <v>44</v>
+      </c>
+      <c r="AG226">
+        <v>27</v>
+      </c>
+      <c r="AH226">
+        <v>16</v>
+      </c>
+      <c r="AI226">
+        <v>129</v>
+      </c>
+      <c r="AJ226">
+        <v>128</v>
+      </c>
+      <c r="AK226">
+        <v>53</v>
+      </c>
+      <c r="AL226">
+        <v>75</v>
+      </c>
+      <c r="AM226">
+        <v>61</v>
+      </c>
+      <c r="AN226">
+        <v>20</v>
+      </c>
+      <c r="AO226">
+        <v>41</v>
+      </c>
+      <c r="AP226">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/5/1/Exportaciones según CUCI 2003 a 2021 - Mensual.xlsx
+++ b/8/5/1/Exportaciones según CUCI 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>Serie</t>
   </si>
@@ -816,6 +816,9 @@
   <si>
     <t>01-09-2021</t>
   </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1172,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP226"/>
+  <dimension ref="A1:AP227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30106,6 +30109,134 @@
         <v>85</v>
       </c>
     </row>
+    <row r="227" spans="1:42">
+      <c r="A227" t="s">
+        <v>267</v>
+      </c>
+      <c r="B227">
+        <v>7768</v>
+      </c>
+      <c r="C227">
+        <v>1215</v>
+      </c>
+      <c r="D227">
+        <v>575</v>
+      </c>
+      <c r="E227">
+        <v>434</v>
+      </c>
+      <c r="F227">
+        <v>30</v>
+      </c>
+      <c r="G227">
+        <v>113</v>
+      </c>
+      <c r="H227">
+        <v>26</v>
+      </c>
+      <c r="I227">
+        <v>15</v>
+      </c>
+      <c r="J227">
+        <v>21</v>
+      </c>
+      <c r="K227">
+        <v>168</v>
+      </c>
+      <c r="L227">
+        <v>166</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
+        <v>3286</v>
+      </c>
+      <c r="O227">
+        <v>2862</v>
+      </c>
+      <c r="P227">
+        <v>206</v>
+      </c>
+      <c r="Q227">
+        <v>144</v>
+      </c>
+      <c r="R227">
+        <v>49</v>
+      </c>
+      <c r="S227">
+        <v>25</v>
+      </c>
+      <c r="T227">
+        <v>47</v>
+      </c>
+      <c r="U227">
+        <v>40</v>
+      </c>
+      <c r="V227">
+        <v>7</v>
+      </c>
+      <c r="W227">
+        <v>36</v>
+      </c>
+      <c r="X227">
+        <v>374</v>
+      </c>
+      <c r="Y227">
+        <v>31</v>
+      </c>
+      <c r="Z227">
+        <v>220</v>
+      </c>
+      <c r="AA227">
+        <v>45</v>
+      </c>
+      <c r="AB227">
+        <v>78</v>
+      </c>
+      <c r="AC227">
+        <v>2336</v>
+      </c>
+      <c r="AD227">
+        <v>2077</v>
+      </c>
+      <c r="AE227">
+        <v>105</v>
+      </c>
+      <c r="AF227">
+        <v>40</v>
+      </c>
+      <c r="AG227">
+        <v>38</v>
+      </c>
+      <c r="AH227">
+        <v>17</v>
+      </c>
+      <c r="AI227">
+        <v>59</v>
+      </c>
+      <c r="AJ227">
+        <v>135</v>
+      </c>
+      <c r="AK227">
+        <v>44</v>
+      </c>
+      <c r="AL227">
+        <v>92</v>
+      </c>
+      <c r="AM227">
+        <v>59</v>
+      </c>
+      <c r="AN227">
+        <v>21</v>
+      </c>
+      <c r="AO227">
+        <v>38</v>
+      </c>
+      <c r="AP227">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
